--- a/kodesatker.xlsx
+++ b/kodesatker.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20373"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20384"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\supremecourt\myarticle\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\myarticle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E87AA5D-16BC-4016-B5E8-9ED6F825E6D4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F4E8C9D-362D-4110-B0F9-776CB63B7B3B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11760" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15429,7 +15429,7 @@
   <dimension ref="A1:N1829"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="J85" sqref="J85"/>
+      <selection activeCell="I92" sqref="I92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
